--- a/biology/Zoologie/Janthecla/Janthecla.xlsx
+++ b/biology/Zoologie/Janthecla/Janthecla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Janthecla est un genre d'insectes lépidoptères de la famille des Lycaenidae et de la sous-famille des Theclinae présents en Amérique.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été créé en 1991 par Robert K. Robbins (d) et B. Adrienne B. Venables (d). Son espèce type est Janthecla janthina, décrite initialement en 1867 par Hewitson sous le protonyme de Thecla janthina[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été créé en 1991 par Robert K. Robbins (d) et B. Adrienne B. Venables (d). Son espèce type est Janthecla janthina, décrite initialement en 1867 par Hewitson sous le protonyme de Thecla janthina.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Janthecla sont présentes en Amérique centrale et Amérique du Sud[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Janthecla sont présentes en Amérique centrale et Amérique du Sud.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Janthecla armilla (Druce, 1907) ; Brésil
 Janthecla aurora (Druce, 1907) ; Argentine et Brésil
@@ -584,7 +602,7 @@
 Janthecla leea Venables &amp; Robbins, 1991 ; Nord du Venezuela, bassin amazonien, Pérou, Surinam, Guyana et Guyane
 Janthecla malvina (Hewitson, 1867) ; bassin amazonien, Brésil, Surinam, Guyana et Guyane
 Janthecla rocena (Hewitson, 1867) ; Mexique et Brésil
-Janthecla sista (Hewitson, 1867) ; bassin amazonien, Brésil, Surinam, Guyana et Guyane[2],[3].</t>
+Janthecla sista (Hewitson, 1867) ; bassin amazonien, Brésil, Surinam, Guyana et Guyane,.</t>
         </is>
       </c>
     </row>
@@ -612,9 +630,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Janthecla est une combinaison arbitraire de Thecla et janthina, sur la base de la dénomination initiale de l'espèce type, Thecla janthina[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Janthecla est une combinaison arbitraire de Thecla et janthina, sur la base de la dénomination initiale de l'espèce type, Thecla janthina.
 </t>
         </is>
       </c>
@@ -643,7 +663,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Robert K. Robbins et B. Adrienne B. Venables, « Synopsis of a new Neotropical hairstreak genus, Janthecla, and description of a new species », Journal of the Lepidopterists' Society, New Haven, Société des lépidoptéristes (d), vol. 45, no 1,‎ 1991, p. 11-33 (ISSN 0024-0966, OCLC 7654420, lire en ligne)</t>
         </is>
